--- a/data/outputs/能源化工元源数据文件/39(2)JOURNAL OF THERMAL ANALYSIS AND CALORIMETRY.xlsx
+++ b/data/outputs/能源化工元源数据文件/39(2)JOURNAL OF THERMAL ANALYSIS AND CALORIMETRY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ276"/>
+  <dimension ref="A1:BR276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -929,6 +934,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1146,6 +1152,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1351,6 +1358,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1438,7 +1446,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t> [POS CCE-A2 O2.1.2];  [PN 09-44 02 01];  [PN 09-44 02 05]</t>
+          <t>[POS CCE-A2 O2.1.2];  [PN 09-44 02 01];  [PN 09-44 02 05]</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1564,6 +1572,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1773,6 +1782,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1986,6 +1996,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2199,6 +2210,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2400,6 +2412,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2601,6 +2614,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2810,6 +2824,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3011,6 +3026,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3228,6 +3244,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3445,6 +3462,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3654,6 +3672,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3863,6 +3882,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4072,6 +4092,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4281,6 +4302,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4498,6 +4520,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4699,6 +4722,11 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>3709633</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4916,6 +4944,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5133,6 +5162,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5342,6 +5372,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5559,6 +5590,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5768,6 +5800,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5977,6 +6010,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6194,6 +6228,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6395,6 +6430,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6600,6 +6636,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6817,6 +6854,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6994,6 +7032,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7207,6 +7246,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7424,6 +7464,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7641,6 +7682,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7858,6 +7900,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8067,6 +8110,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8284,6 +8328,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8493,6 +8538,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8698,6 +8744,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8911,6 +8958,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9120,6 +9168,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9329,6 +9378,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9530,6 +9580,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9731,6 +9782,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9940,6 +9992,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10153,6 +10206,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10354,6 +10408,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10567,6 +10622,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10784,6 +10840,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10993,6 +11050,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11202,6 +11260,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11419,6 +11478,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11636,6 +11696,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11853,6 +11914,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12058,6 +12120,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12263,6 +12326,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12472,6 +12536,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12673,6 +12738,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12882,6 +12948,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13099,6 +13166,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13304,6 +13372,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13521,6 +13590,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13738,6 +13808,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13951,6 +14022,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14156,6 +14228,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14373,6 +14446,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14590,6 +14664,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14787,6 +14862,7 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15004,6 +15080,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15213,6 +15290,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15422,6 +15500,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15635,6 +15714,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15852,6 +15932,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16061,6 +16142,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16278,6 +16360,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16479,6 +16562,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16680,6 +16764,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16881,6 +16966,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17090,6 +17176,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17299,6 +17386,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17496,6 +17584,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17709,6 +17798,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17918,6 +18008,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18127,6 +18218,7 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18336,6 +18428,7 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18545,6 +18638,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18754,6 +18848,7 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -18963,6 +19058,7 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19172,6 +19268,7 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19381,6 +19478,7 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19590,6 +19688,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19799,6 +19898,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20008,6 +20108,7 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20217,6 +20318,7 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20426,6 +20528,7 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20639,6 +20742,7 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -20856,6 +20960,11 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr">
+        <is>
+          <t>4082059</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -21077,6 +21186,7 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21294,6 +21404,7 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21511,6 +21622,7 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21724,6 +21836,7 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -21941,6 +22054,7 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22158,6 +22272,7 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22367,6 +22482,7 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22580,6 +22696,7 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -22789,6 +22906,7 @@
         </is>
       </c>
       <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -22998,6 +23116,7 @@
         </is>
       </c>
       <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -23203,6 +23322,7 @@
         </is>
       </c>
       <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23420,6 +23540,7 @@
         </is>
       </c>
       <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -23629,6 +23750,7 @@
         </is>
       </c>
       <c r="BQ110" t="inlineStr"/>
+      <c r="BR110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -23838,6 +23960,7 @@
         </is>
       </c>
       <c r="BQ111" t="inlineStr"/>
+      <c r="BR111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -24039,6 +24162,7 @@
         </is>
       </c>
       <c r="BQ112" t="inlineStr"/>
+      <c r="BR112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -24248,6 +24372,7 @@
         </is>
       </c>
       <c r="BQ113" t="inlineStr"/>
+      <c r="BR113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -24461,6 +24586,11 @@
         </is>
       </c>
       <c r="BQ114" t="inlineStr"/>
+      <c r="BR114" t="inlineStr">
+        <is>
+          <t>3734158</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -24650,6 +24780,7 @@
         </is>
       </c>
       <c r="BQ115" t="inlineStr"/>
+      <c r="BR115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -24859,6 +24990,7 @@
         </is>
       </c>
       <c r="BQ116" t="inlineStr"/>
+      <c r="BR116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -25076,6 +25208,11 @@
         </is>
       </c>
       <c r="BQ117" t="inlineStr"/>
+      <c r="BR117" t="inlineStr">
+        <is>
+          <t>2026194</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -25277,6 +25414,7 @@
         </is>
       </c>
       <c r="BQ118" t="inlineStr"/>
+      <c r="BR118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -25478,6 +25616,7 @@
         </is>
       </c>
       <c r="BQ119" t="inlineStr"/>
+      <c r="BR119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -25679,6 +25818,7 @@
         </is>
       </c>
       <c r="BQ120" t="inlineStr"/>
+      <c r="BR120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -25880,6 +26020,7 @@
         </is>
       </c>
       <c r="BQ121" t="inlineStr"/>
+      <c r="BR121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -26097,6 +26238,7 @@
         </is>
       </c>
       <c r="BQ122" t="inlineStr"/>
+      <c r="BR122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -26306,6 +26448,7 @@
         </is>
       </c>
       <c r="BQ123" t="inlineStr"/>
+      <c r="BR123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -26507,6 +26650,7 @@
         </is>
       </c>
       <c r="BQ124" t="inlineStr"/>
+      <c r="BR124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -26716,6 +26860,7 @@
         </is>
       </c>
       <c r="BQ125" t="inlineStr"/>
+      <c r="BR125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -26925,6 +27070,7 @@
         </is>
       </c>
       <c r="BQ126" t="inlineStr"/>
+      <c r="BR126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -27138,6 +27284,7 @@
         </is>
       </c>
       <c r="BQ127" t="inlineStr"/>
+      <c r="BR127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -27339,6 +27486,7 @@
         </is>
       </c>
       <c r="BQ128" t="inlineStr"/>
+      <c r="BR128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -27540,6 +27688,11 @@
         </is>
       </c>
       <c r="BQ129" t="inlineStr"/>
+      <c r="BR129" t="inlineStr">
+        <is>
+          <t>2761508</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -27741,6 +27894,7 @@
         </is>
       </c>
       <c r="BQ130" t="inlineStr"/>
+      <c r="BR130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -27950,6 +28104,7 @@
         </is>
       </c>
       <c r="BQ131" t="inlineStr"/>
+      <c r="BR131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -28151,6 +28306,11 @@
         </is>
       </c>
       <c r="BQ132" t="inlineStr"/>
+      <c r="BR132" t="inlineStr">
+        <is>
+          <t>3072591</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -28360,6 +28520,7 @@
         </is>
       </c>
       <c r="BQ133" t="inlineStr"/>
+      <c r="BR133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -28569,6 +28730,7 @@
         </is>
       </c>
       <c r="BQ134" t="inlineStr"/>
+      <c r="BR134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -28770,6 +28932,11 @@
         </is>
       </c>
       <c r="BQ135" t="inlineStr"/>
+      <c r="BR135" t="inlineStr">
+        <is>
+          <t>3027378</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -28975,6 +29142,7 @@
         </is>
       </c>
       <c r="BQ136" t="inlineStr"/>
+      <c r="BR136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -29188,6 +29356,7 @@
         </is>
       </c>
       <c r="BQ137" t="inlineStr"/>
+      <c r="BR137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -29389,6 +29558,7 @@
         </is>
       </c>
       <c r="BQ138" t="inlineStr"/>
+      <c r="BR138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -29598,6 +29768,7 @@
         </is>
       </c>
       <c r="BQ139" t="inlineStr"/>
+      <c r="BR139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -29799,6 +29970,7 @@
         </is>
       </c>
       <c r="BQ140" t="inlineStr"/>
+      <c r="BR140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -30012,6 +30184,7 @@
         </is>
       </c>
       <c r="BQ141" t="inlineStr"/>
+      <c r="BR141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -30221,6 +30394,7 @@
         </is>
       </c>
       <c r="BQ142" t="inlineStr"/>
+      <c r="BR142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -30430,6 +30604,7 @@
         </is>
       </c>
       <c r="BQ143" t="inlineStr"/>
+      <c r="BR143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -30647,6 +30822,7 @@
         </is>
       </c>
       <c r="BQ144" t="inlineStr"/>
+      <c r="BR144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -30852,6 +31028,7 @@
         </is>
       </c>
       <c r="BQ145" t="inlineStr"/>
+      <c r="BR145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -31061,6 +31238,7 @@
         </is>
       </c>
       <c r="BQ146" t="inlineStr"/>
+      <c r="BR146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -31270,6 +31448,7 @@
         </is>
       </c>
       <c r="BQ147" t="inlineStr"/>
+      <c r="BR147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -31491,6 +31670,7 @@
         </is>
       </c>
       <c r="BQ148" t="inlineStr"/>
+      <c r="BR148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -31708,6 +31888,7 @@
         </is>
       </c>
       <c r="BQ149" t="inlineStr"/>
+      <c r="BR149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -31925,6 +32106,7 @@
         </is>
       </c>
       <c r="BQ150" t="inlineStr"/>
+      <c r="BR150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -32134,6 +32316,7 @@
         </is>
       </c>
       <c r="BQ151" t="inlineStr"/>
+      <c r="BR151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -32347,6 +32530,7 @@
         </is>
       </c>
       <c r="BQ152" t="inlineStr"/>
+      <c r="BR152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -32548,6 +32732,7 @@
         </is>
       </c>
       <c r="BQ153" t="inlineStr"/>
+      <c r="BR153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -32757,6 +32942,7 @@
         </is>
       </c>
       <c r="BQ154" t="inlineStr"/>
+      <c r="BR154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -32974,6 +33160,7 @@
         </is>
       </c>
       <c r="BQ155" t="inlineStr"/>
+      <c r="BR155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -33179,6 +33366,7 @@
         </is>
       </c>
       <c r="BQ156" t="inlineStr"/>
+      <c r="BR156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -33396,6 +33584,7 @@
         </is>
       </c>
       <c r="BQ157" t="inlineStr"/>
+      <c r="BR157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -33609,6 +33798,7 @@
         </is>
       </c>
       <c r="BQ158" t="inlineStr"/>
+      <c r="BR158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -33822,6 +34012,7 @@
         </is>
       </c>
       <c r="BQ159" t="inlineStr"/>
+      <c r="BR159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -34031,6 +34222,7 @@
         </is>
       </c>
       <c r="BQ160" t="inlineStr"/>
+      <c r="BR160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -34244,6 +34436,7 @@
         </is>
       </c>
       <c r="BQ161" t="inlineStr"/>
+      <c r="BR161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -34453,6 +34646,7 @@
         </is>
       </c>
       <c r="BQ162" t="inlineStr"/>
+      <c r="BR162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -34662,6 +34856,7 @@
         </is>
       </c>
       <c r="BQ163" t="inlineStr"/>
+      <c r="BR163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -34871,6 +35066,7 @@
         </is>
       </c>
       <c r="BQ164" t="inlineStr"/>
+      <c r="BR164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -35080,6 +35276,7 @@
         </is>
       </c>
       <c r="BQ165" t="inlineStr"/>
+      <c r="BR165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -35297,6 +35494,7 @@
         </is>
       </c>
       <c r="BQ166" t="inlineStr"/>
+      <c r="BR166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -35514,6 +35712,7 @@
         </is>
       </c>
       <c r="BQ167" t="inlineStr"/>
+      <c r="BR167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -35723,6 +35922,7 @@
         </is>
       </c>
       <c r="BQ168" t="inlineStr"/>
+      <c r="BR168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -35936,6 +36136,7 @@
         </is>
       </c>
       <c r="BQ169" t="inlineStr"/>
+      <c r="BR169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -36149,6 +36350,7 @@
         </is>
       </c>
       <c r="BQ170" t="inlineStr"/>
+      <c r="BR170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -36366,6 +36568,7 @@
         </is>
       </c>
       <c r="BQ171" t="inlineStr"/>
+      <c r="BR171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -36587,6 +36790,7 @@
         </is>
       </c>
       <c r="BQ172" t="inlineStr"/>
+      <c r="BR172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -36788,6 +36992,7 @@
         </is>
       </c>
       <c r="BQ173" t="inlineStr"/>
+      <c r="BR173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -37005,6 +37210,7 @@
         </is>
       </c>
       <c r="BQ174" t="inlineStr"/>
+      <c r="BR174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -37222,6 +37428,7 @@
         </is>
       </c>
       <c r="BQ175" t="inlineStr"/>
+      <c r="BR175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -37423,6 +37630,7 @@
         </is>
       </c>
       <c r="BQ176" t="inlineStr"/>
+      <c r="BR176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -37624,6 +37832,7 @@
         </is>
       </c>
       <c r="BQ177" t="inlineStr"/>
+      <c r="BR177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -37845,6 +38054,7 @@
         </is>
       </c>
       <c r="BQ178" t="inlineStr"/>
+      <c r="BR178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -38054,6 +38264,7 @@
         </is>
       </c>
       <c r="BQ179" t="inlineStr"/>
+      <c r="BR179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -38271,6 +38482,7 @@
         </is>
       </c>
       <c r="BQ180" t="inlineStr"/>
+      <c r="BR180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -38472,6 +38684,7 @@
         </is>
       </c>
       <c r="BQ181" t="inlineStr"/>
+      <c r="BR181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -38546,7 +38759,7 @@
       </c>
       <c r="AA182" t="inlineStr">
         <is>
-          <t>Strzalkowski, Karol/0000-0003-3773-0480; </t>
+          <t>Strzalkowski, Karol/0000-0003-3773-0480;</t>
         </is>
       </c>
       <c r="AB182" t="inlineStr"/>
@@ -38673,6 +38886,7 @@
         </is>
       </c>
       <c r="BQ182" t="inlineStr"/>
+      <c r="BR182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -38874,6 +39088,7 @@
         </is>
       </c>
       <c r="BQ183" t="inlineStr"/>
+      <c r="BR183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -39087,6 +39302,7 @@
         </is>
       </c>
       <c r="BQ184" t="inlineStr"/>
+      <c r="BR184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -39300,6 +39516,7 @@
         </is>
       </c>
       <c r="BQ185" t="inlineStr"/>
+      <c r="BR185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -39517,6 +39734,7 @@
         </is>
       </c>
       <c r="BQ186" t="inlineStr"/>
+      <c r="BR186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -39726,6 +39944,7 @@
         </is>
       </c>
       <c r="BQ187" t="inlineStr"/>
+      <c r="BR187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -39927,6 +40146,7 @@
         </is>
       </c>
       <c r="BQ188" t="inlineStr"/>
+      <c r="BR188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -40013,7 +40233,7 @@
       </c>
       <c r="AA189" t="inlineStr">
         <is>
-          <t>Rashchenko, Sergey V./0000-0003-2936-0694; Gavryushkin, Pavel/0000-0002-9419-2167; </t>
+          <t>Rashchenko, Sergey V./0000-0003-2936-0694; Gavryushkin, Pavel/0000-0002-9419-2167;</t>
         </is>
       </c>
       <c r="AB189" t="inlineStr">
@@ -40144,6 +40364,7 @@
         </is>
       </c>
       <c r="BQ189" t="inlineStr"/>
+      <c r="BR189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -40361,6 +40582,7 @@
         </is>
       </c>
       <c r="BQ190" t="inlineStr"/>
+      <c r="BR190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -40570,6 +40792,7 @@
         </is>
       </c>
       <c r="BQ191" t="inlineStr"/>
+      <c r="BR191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -40779,6 +41002,7 @@
         </is>
       </c>
       <c r="BQ192" t="inlineStr"/>
+      <c r="BR192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -40988,6 +41212,7 @@
         </is>
       </c>
       <c r="BQ193" t="inlineStr"/>
+      <c r="BR193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -41165,6 +41390,7 @@
         </is>
       </c>
       <c r="BQ194" t="inlineStr"/>
+      <c r="BR194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -41382,6 +41608,7 @@
         </is>
       </c>
       <c r="BQ195" t="inlineStr"/>
+      <c r="BR195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -41591,6 +41818,7 @@
         </is>
       </c>
       <c r="BQ196" t="inlineStr"/>
+      <c r="BR196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -41800,6 +42028,7 @@
         </is>
       </c>
       <c r="BQ197" t="inlineStr"/>
+      <c r="BR197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -42009,6 +42238,7 @@
         </is>
       </c>
       <c r="BQ198" t="inlineStr"/>
+      <c r="BR198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -42218,6 +42448,7 @@
         </is>
       </c>
       <c r="BQ199" t="inlineStr"/>
+      <c r="BR199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -42419,6 +42650,7 @@
         </is>
       </c>
       <c r="BQ200" t="inlineStr"/>
+      <c r="BR200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -42628,6 +42860,7 @@
         </is>
       </c>
       <c r="BQ201" t="inlineStr"/>
+      <c r="BR201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -42829,6 +43062,7 @@
         </is>
       </c>
       <c r="BQ202" t="inlineStr"/>
+      <c r="BR202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -43050,6 +43284,7 @@
         </is>
       </c>
       <c r="BQ203" t="inlineStr"/>
+      <c r="BR203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -43259,6 +43494,7 @@
         </is>
       </c>
       <c r="BQ204" t="inlineStr"/>
+      <c r="BR204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -43476,6 +43712,7 @@
         </is>
       </c>
       <c r="BQ205" t="inlineStr"/>
+      <c r="BR205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -43693,6 +43930,7 @@
         </is>
       </c>
       <c r="BQ206" t="inlineStr"/>
+      <c r="BR206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -43902,6 +44140,7 @@
         </is>
       </c>
       <c r="BQ207" t="inlineStr"/>
+      <c r="BR207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -44107,6 +44346,7 @@
         </is>
       </c>
       <c r="BQ208" t="inlineStr"/>
+      <c r="BR208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -44308,6 +44548,7 @@
         </is>
       </c>
       <c r="BQ209" t="inlineStr"/>
+      <c r="BR209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -44525,6 +44766,7 @@
         </is>
       </c>
       <c r="BQ210" t="inlineStr"/>
+      <c r="BR210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -44734,6 +44976,7 @@
         </is>
       </c>
       <c r="BQ211" t="inlineStr"/>
+      <c r="BR211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -44943,6 +45186,7 @@
         </is>
       </c>
       <c r="BQ212" t="inlineStr"/>
+      <c r="BR212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -45152,6 +45396,7 @@
         </is>
       </c>
       <c r="BQ213" t="inlineStr"/>
+      <c r="BR213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -45373,6 +45618,7 @@
         </is>
       </c>
       <c r="BQ214" t="inlineStr"/>
+      <c r="BR214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -45582,6 +45828,7 @@
         </is>
       </c>
       <c r="BQ215" t="inlineStr"/>
+      <c r="BR215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -45795,6 +46042,7 @@
         </is>
       </c>
       <c r="BQ216" t="inlineStr"/>
+      <c r="BR216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -46008,6 +46256,7 @@
         </is>
       </c>
       <c r="BQ217" t="inlineStr"/>
+      <c r="BR217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -46221,6 +46470,7 @@
         </is>
       </c>
       <c r="BQ218" t="inlineStr"/>
+      <c r="BR218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -46434,6 +46684,7 @@
         </is>
       </c>
       <c r="BQ219" t="inlineStr"/>
+      <c r="BR219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -46520,7 +46771,7 @@
       </c>
       <c r="AA220" t="inlineStr">
         <is>
-          <t>Rahimi-Nasrabadi, Mehdi/0000-0003-4926-2696; Pourmortazavi, Seied Mahdi/0000-0002-9817-4070; </t>
+          <t>Rahimi-Nasrabadi, Mehdi/0000-0003-4926-2696; Pourmortazavi, Seied Mahdi/0000-0002-9817-4070;</t>
         </is>
       </c>
       <c r="AB220" t="inlineStr"/>
@@ -46643,6 +46894,7 @@
         </is>
       </c>
       <c r="BQ220" t="inlineStr"/>
+      <c r="BR220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -46844,6 +47096,7 @@
         </is>
       </c>
       <c r="BQ221" t="inlineStr"/>
+      <c r="BR221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -47061,6 +47314,7 @@
         </is>
       </c>
       <c r="BQ222" t="inlineStr"/>
+      <c r="BR222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -47270,6 +47524,7 @@
         </is>
       </c>
       <c r="BQ223" t="inlineStr"/>
+      <c r="BR223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -47487,6 +47742,7 @@
         </is>
       </c>
       <c r="BQ224" t="inlineStr"/>
+      <c r="BR224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -47688,6 +47944,7 @@
         </is>
       </c>
       <c r="BQ225" t="inlineStr"/>
+      <c r="BR225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -47897,6 +48154,7 @@
         </is>
       </c>
       <c r="BQ226" t="inlineStr"/>
+      <c r="BR226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -48098,6 +48356,7 @@
         </is>
       </c>
       <c r="BQ227" t="inlineStr"/>
+      <c r="BR227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -48307,6 +48566,7 @@
         </is>
       </c>
       <c r="BQ228" t="inlineStr"/>
+      <c r="BR228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -48516,6 +48776,7 @@
         </is>
       </c>
       <c r="BQ229" t="inlineStr"/>
+      <c r="BR229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -48733,6 +48994,7 @@
         </is>
       </c>
       <c r="BQ230" t="inlineStr"/>
+      <c r="BR230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -48946,6 +49208,7 @@
         </is>
       </c>
       <c r="BQ231" t="inlineStr"/>
+      <c r="BR231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -49155,6 +49418,7 @@
         </is>
       </c>
       <c r="BQ232" t="inlineStr"/>
+      <c r="BR232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -49364,6 +49628,7 @@
         </is>
       </c>
       <c r="BQ233" t="inlineStr"/>
+      <c r="BR233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -49577,6 +49842,7 @@
         </is>
       </c>
       <c r="BQ234" t="inlineStr"/>
+      <c r="BR234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -49794,6 +50060,7 @@
         </is>
       </c>
       <c r="BQ235" t="inlineStr"/>
+      <c r="BR235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -49876,7 +50143,7 @@
       </c>
       <c r="AA236" t="inlineStr">
         <is>
-          <t>han, zhiyue/0000-0002-8517-5760; </t>
+          <t>han, zhiyue/0000-0002-8517-5760;</t>
         </is>
       </c>
       <c r="AB236" t="inlineStr"/>
@@ -49999,6 +50266,7 @@
         </is>
       </c>
       <c r="BQ236" t="inlineStr"/>
+      <c r="BR236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -50208,6 +50476,7 @@
         </is>
       </c>
       <c r="BQ237" t="inlineStr"/>
+      <c r="BR237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -50421,6 +50690,7 @@
         </is>
       </c>
       <c r="BQ238" t="inlineStr"/>
+      <c r="BR238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -50634,6 +50904,7 @@
         </is>
       </c>
       <c r="BQ239" t="inlineStr"/>
+      <c r="BR239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -50851,6 +51122,7 @@
         </is>
       </c>
       <c r="BQ240" t="inlineStr"/>
+      <c r="BR240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -51060,6 +51332,7 @@
         </is>
       </c>
       <c r="BQ241" t="inlineStr"/>
+      <c r="BR241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -51269,6 +51542,7 @@
         </is>
       </c>
       <c r="BQ242" t="inlineStr"/>
+      <c r="BR242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -51478,6 +51752,7 @@
         </is>
       </c>
       <c r="BQ243" t="inlineStr"/>
+      <c r="BR243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -51683,6 +51958,7 @@
         </is>
       </c>
       <c r="BQ244" t="inlineStr"/>
+      <c r="BR244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -51896,6 +52172,7 @@
         </is>
       </c>
       <c r="BQ245" t="inlineStr"/>
+      <c r="BR245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -52113,6 +52390,7 @@
         </is>
       </c>
       <c r="BQ246" t="inlineStr"/>
+      <c r="BR246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -52322,6 +52600,7 @@
         </is>
       </c>
       <c r="BQ247" t="inlineStr"/>
+      <c r="BR247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -52531,6 +52810,7 @@
         </is>
       </c>
       <c r="BQ248" t="inlineStr"/>
+      <c r="BR248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -52732,6 +53012,7 @@
         </is>
       </c>
       <c r="BQ249" t="inlineStr"/>
+      <c r="BR249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -52941,6 +53222,7 @@
         </is>
       </c>
       <c r="BQ250" t="inlineStr"/>
+      <c r="BR250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -53027,7 +53309,7 @@
       </c>
       <c r="AA251" t="inlineStr">
         <is>
-          <t>liu, lei/0000-0002-6616-699X; </t>
+          <t>liu, lei/0000-0002-6616-699X;</t>
         </is>
       </c>
       <c r="AB251" t="inlineStr">
@@ -53158,6 +53440,7 @@
         </is>
       </c>
       <c r="BQ251" t="inlineStr"/>
+      <c r="BR251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -53367,6 +53650,7 @@
         </is>
       </c>
       <c r="BQ252" t="inlineStr"/>
+      <c r="BR252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -53576,6 +53860,7 @@
         </is>
       </c>
       <c r="BQ253" t="inlineStr"/>
+      <c r="BR253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -53785,6 +54070,7 @@
         </is>
       </c>
       <c r="BQ254" t="inlineStr"/>
+      <c r="BR254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -54002,6 +54288,11 @@
         </is>
       </c>
       <c r="BQ255" t="inlineStr"/>
+      <c r="BR255" t="inlineStr">
+        <is>
+          <t>3553569</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -54203,6 +54494,7 @@
         </is>
       </c>
       <c r="BQ256" t="inlineStr"/>
+      <c r="BR256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -54412,6 +54704,7 @@
         </is>
       </c>
       <c r="BQ257" t="inlineStr"/>
+      <c r="BR257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -54625,6 +54918,7 @@
         </is>
       </c>
       <c r="BQ258" t="inlineStr"/>
+      <c r="BR258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -54834,6 +55128,7 @@
         </is>
       </c>
       <c r="BQ259" t="inlineStr"/>
+      <c r="BR259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -55047,6 +55342,7 @@
         </is>
       </c>
       <c r="BQ260" t="inlineStr"/>
+      <c r="BR260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -55256,6 +55552,7 @@
         </is>
       </c>
       <c r="BQ261" t="inlineStr"/>
+      <c r="BR261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -55457,6 +55754,7 @@
         </is>
       </c>
       <c r="BQ262" t="inlineStr"/>
+      <c r="BR262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -55674,6 +55972,7 @@
         </is>
       </c>
       <c r="BQ263" t="inlineStr"/>
+      <c r="BR263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -55891,6 +56190,7 @@
         </is>
       </c>
       <c r="BQ264" t="inlineStr"/>
+      <c r="BR264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -56108,6 +56408,7 @@
         </is>
       </c>
       <c r="BQ265" t="inlineStr"/>
+      <c r="BR265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -56321,6 +56622,7 @@
         </is>
       </c>
       <c r="BQ266" t="inlineStr"/>
+      <c r="BR266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -56530,6 +56832,11 @@
         </is>
       </c>
       <c r="BQ267" t="inlineStr"/>
+      <c r="BR267" t="inlineStr">
+        <is>
+          <t>2761501</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -56743,6 +57050,7 @@
         </is>
       </c>
       <c r="BQ268" t="inlineStr"/>
+      <c r="BR268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -56830,7 +57138,7 @@
       </c>
       <c r="AB269" t="inlineStr">
         <is>
-          <t> [TAMOP-4.2.1.B-10/2/KONV-2010-0001]</t>
+          <t>[TAMOP-4.2.1.B-10/2/KONV-2010-0001]</t>
         </is>
       </c>
       <c r="AC269" t="inlineStr">
@@ -56956,6 +57264,7 @@
         </is>
       </c>
       <c r="BQ269" t="inlineStr"/>
+      <c r="BR269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -57173,6 +57482,7 @@
         </is>
       </c>
       <c r="BQ270" t="inlineStr"/>
+      <c r="BR270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -57386,6 +57696,7 @@
         </is>
       </c>
       <c r="BQ271" t="inlineStr"/>
+      <c r="BR271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -57603,6 +57914,7 @@
         </is>
       </c>
       <c r="BQ272" t="inlineStr"/>
+      <c r="BR272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -57812,6 +58124,7 @@
         </is>
       </c>
       <c r="BQ273" t="inlineStr"/>
+      <c r="BR273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -58013,6 +58326,7 @@
         </is>
       </c>
       <c r="BQ274" t="inlineStr"/>
+      <c r="BR274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -58222,6 +58536,7 @@
         </is>
       </c>
       <c r="BQ275" t="inlineStr"/>
+      <c r="BR275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -58431,6 +58746,7 @@
         </is>
       </c>
       <c r="BQ276" t="inlineStr"/>
+      <c r="BR276" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
